--- a/group.xlsx
+++ b/group.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42056D7F-15A7-0042-8C90-5AA7EF1BE1D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3AF13-3517-D348-A6FD-F9F9A19F81C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="658">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2151,14 +2151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>the traffic accident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通事故</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>according to</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2487,10 +2479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对意见一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尽管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2660,6 +2648,10 @@
   </si>
   <si>
     <t>be shy of sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对 意见一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2990,7 +2982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -4387,7 +4379,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>343</v>
@@ -4618,13 +4610,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D632D2C-AD33-3943-A69D-57B9F347922B}">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -5212,15 +5208,15 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>536</v>
@@ -5263,23 +5259,23 @@
         <v>545</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5308,10 +5304,10 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5324,66 +5320,66 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5391,7 +5387,7 @@
         <v>574</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5415,36 +5411,36 @@
         <v>580</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>588</v>
@@ -5455,20 +5451,20 @@
         <v>589</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>593</v>
@@ -5476,7 +5472,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>595</v>
@@ -5484,18 +5480,18 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5503,15 +5499,15 @@
         <v>600</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5524,26 +5520,26 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5551,15 +5547,15 @@
         <v>610</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5567,55 +5563,55 @@
         <v>613</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5623,124 +5619,124 @@
         <v>628</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>652</v>
@@ -5748,15 +5744,15 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>655</v>
@@ -5764,18 +5760,10 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/group.xlsx
+++ b/group.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3AF13-3517-D348-A6FD-F9F9A19F81C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8304AF8D-4D61-E247-9875-DE8F359D357F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="717">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1931,10 +1931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>至于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aside from</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2391,10 +2387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>take ones advice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>给某人忠告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2653,13 +2645,257 @@
   <si>
     <t>对 意见一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be eager to do sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望做某事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be anxious to do sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long for sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望得到某物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hope for sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be dying for sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be anxious for sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a large amount of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修饰不可数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a great deal of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a large sum of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a little</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>little</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a great number of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修饰可数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>few</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a few</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>several</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a lot of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两者皆可修饰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lots of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plenty of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the number of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lead to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导致；通向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one after another</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个接一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer the call</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer the letter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply to the letter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>write to sb.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对 负责</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>be responsible for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn from one's mistake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从错误中吸取教训</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>teach sb. a lesson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给某人上一课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask for leave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave sb. alone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让某人独自呆着</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apologize to sb. for sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal to sb.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attract sb.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth. catch one's eye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>judge from/by one's appearance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从外表判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply to sb. for sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向某人申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把 应用于；涂在 上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appreciate doing sth.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欣赏做某事；感激做某事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take one's advice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为某事向某人道歉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2671,6 +2907,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2695,10 +2938,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4379,7 +4625,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>343</v>
@@ -4610,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D632D2C-AD33-3943-A69D-57B9F347922B}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -4939,7 +5185,7 @@
         <v>473</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4947,7 +5193,7 @@
         <v>474</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4960,239 +5206,239 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>315</v>
@@ -5200,570 +5446,890 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>592</v>
+        <v>715</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>655</v>
+      <c r="B144" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/group.xlsx
+++ b/group.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8304AF8D-4D61-E247-9875-DE8F359D357F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05AE753-ADDC-014E-8D32-B5E07DC7AB30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="880">
   <si>
     <t>bring about</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2889,6 +2890,658 @@
   <si>
     <t>为某事向某人道歉</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>argue with sb. about sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和某人就某事争吵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show sb. around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环顾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrange for sb. to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安排某人做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a work of art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一件艺术品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false teeth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as he is a teacher = teacher as he is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然他是老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as he is young = young as he is</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as he grows up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着年龄的长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和 一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not so as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和 不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as far as I know</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就我所知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as long as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as well as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask after sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问候某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask for sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask for help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求帮忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall asleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to bed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel sleepy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉瞌睡的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be associated with sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把 和 联想在一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I assure you that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我向你保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assure sb. of sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向某人保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脏病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make an attempt to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企图做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attend the ceremony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出席典礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attend school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay attention to sth./doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a large/small audience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一大/小批听/观众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an audience of five hundred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500个观众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sth. is available to sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可取得的；可采用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惯例的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有规律的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普遍的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>try to avoid doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试图避免做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然他很年轻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be aware of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意识到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award sb. sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予某人奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award sth. to sb.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward sb. with sth. for sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为某事奖励某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>look back into history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回顾历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be bad for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be harmful to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do harm to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对 是有害的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need/require/want sth. badly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep the balance of nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持生态平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ban sb. from doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbid sb. to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止某人做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以 为基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be busy in doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙于做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be covered with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被 覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on the beach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在海滩上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在农场里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at the playground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在操场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在田野里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能忍受某人做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can't bear/stand doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can't understand doing sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能理解某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep/bear sth. in mind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牢记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use one's brains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动动脑筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat sb. by 3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以3:1击败某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the heart beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beat times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打拍子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not but</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是 而是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not because but because</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是因为 而是因为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It will be a long time before do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还要很长时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It won't be a long time before do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不久就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has been 5 years since did</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从 以来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at the beginning of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 一开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落后；落伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behind the times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落后于时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>believe it or not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信不信由你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frankly speaking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦率地说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to be frank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belong to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefit sb. a lot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>had better do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>had better not do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is better to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好别做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is better not to do sth.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not a bit = not at all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not a little = very</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the fields</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4858,7 +5511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D632D2C-AD33-3943-A69D-57B9F347922B}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
+    <sheetView topLeftCell="A182" zoomScale="299" zoomScaleNormal="299" workbookViewId="0">
       <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
@@ -6336,4 +6989,728 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF2D2EE-5280-8E46-9AFF-F29E7DBC8B88}">
+  <dimension ref="A1:B88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="340" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>732</v>
+      </c>
+      <c r="B9" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>734</v>
+      </c>
+      <c r="B10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B11" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>739</v>
+      </c>
+      <c r="B13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>743</v>
+      </c>
+      <c r="B15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>745</v>
+      </c>
+      <c r="B16" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>747</v>
+      </c>
+      <c r="B17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>749</v>
+      </c>
+      <c r="B18" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>751</v>
+      </c>
+      <c r="B19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>753</v>
+      </c>
+      <c r="B20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>755</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>756</v>
+      </c>
+      <c r="B22" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>757</v>
+      </c>
+      <c r="B23" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>759</v>
+      </c>
+      <c r="B24" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>761</v>
+      </c>
+      <c r="B25" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>763</v>
+      </c>
+      <c r="B26" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>765</v>
+      </c>
+      <c r="B27" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>767</v>
+      </c>
+      <c r="B28" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>769</v>
+      </c>
+      <c r="B29" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>771</v>
+      </c>
+      <c r="B30" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>773</v>
+      </c>
+      <c r="B31" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>775</v>
+      </c>
+      <c r="B32" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>777</v>
+      </c>
+      <c r="B33" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>779</v>
+      </c>
+      <c r="B34" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>781</v>
+      </c>
+      <c r="B35" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>783</v>
+      </c>
+      <c r="B36" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>785</v>
+      </c>
+      <c r="B37" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>787</v>
+      </c>
+      <c r="B38" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>789</v>
+      </c>
+      <c r="B39" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>791</v>
+      </c>
+      <c r="B40" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>793</v>
+      </c>
+      <c r="B41" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>796</v>
+      </c>
+      <c r="B42" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>798</v>
+      </c>
+      <c r="B43" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>800</v>
+      </c>
+      <c r="B44" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>801</v>
+      </c>
+      <c r="B45" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>803</v>
+      </c>
+      <c r="B46" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>805</v>
+      </c>
+      <c r="B47" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>806</v>
+      </c>
+      <c r="B48" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>807</v>
+      </c>
+      <c r="B49" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>809</v>
+      </c>
+      <c r="B50" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>811</v>
+      </c>
+      <c r="B51" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>813</v>
+      </c>
+      <c r="B52" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>814</v>
+      </c>
+      <c r="B53" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>816</v>
+      </c>
+      <c r="B54" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>818</v>
+      </c>
+      <c r="B55" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>822</v>
+      </c>
+      <c r="B57" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>824</v>
+      </c>
+      <c r="B58" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>826</v>
+      </c>
+      <c r="B59" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>879</v>
+      </c>
+      <c r="B60" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>830</v>
+      </c>
+      <c r="B61" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>831</v>
+      </c>
+      <c r="B62" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>833</v>
+      </c>
+      <c r="B63" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>835</v>
+      </c>
+      <c r="B64" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>837</v>
+      </c>
+      <c r="B65" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>839</v>
+      </c>
+      <c r="B66" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>840</v>
+      </c>
+      <c r="B67" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>842</v>
+      </c>
+      <c r="B68" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>844</v>
+      </c>
+      <c r="B69" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>846</v>
+      </c>
+      <c r="B70" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>848</v>
+      </c>
+      <c r="B71" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>850</v>
+      </c>
+      <c r="B72" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>852</v>
+      </c>
+      <c r="B73" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>854</v>
+      </c>
+      <c r="B74" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>857</v>
+      </c>
+      <c r="B76" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>859</v>
+      </c>
+      <c r="B77" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>863</v>
+      </c>
+      <c r="B79" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>864</v>
+      </c>
+      <c r="B80" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>866</v>
+      </c>
+      <c r="B81" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>868</v>
+      </c>
+      <c r="B82" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>869</v>
+      </c>
+      <c r="B83" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>870</v>
+      </c>
+      <c r="B84" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>872</v>
+      </c>
+      <c r="B85" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>874</v>
+      </c>
+      <c r="B86" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>875</v>
+      </c>
+      <c r="B87" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>876</v>
+      </c>
+      <c r="B88" t="s">
+        <v>877</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/group.xlsx
+++ b/group.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8385C-09A2-0C4B-8C5D-8FB8D61FB86B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFDC302-A57E-1147-BE4B-23AD4CF89ABD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="27320" windowHeight="13940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -7728,7 +7728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA43AC89-C838-904B-8E40-B484F88B3A37}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="400" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="400" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -8075,8 +8075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB33495-2485-6649-B330-9C0A9E54A52B}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A15" zoomScale="395" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8491,8 +8491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D16DC4-FAD2-984C-A0A9-3E9CDC565EA5}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A2" zoomScale="188" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8907,8 +8907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356DF904-C2A6-D14F-807E-BF3C7A556D4E}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B50"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9323,8 +9323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D632D2C-AD33-3943-A69D-57B9F347922B}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView zoomScale="222" zoomScaleNormal="299" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="222" zoomScaleNormal="299" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
